--- a/api/src/test/resources/summer-reporting-invalid-sessionDate.xlsx
+++ b/api/src/test/resources/summer-reporting-invalid-sessionDate.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avishasodhi/Documents/EDUC/EDUC-GRAD-DATA-COLLECTION-API/api/src/test/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9701CD8-78AA-F24F-A3A7-15F2792F9352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA976960-AA48-4C80-B881-A82A75355228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32960" yWindow="4400" windowWidth="34800" windowHeight="16500" xr2:uid="{9568818F-0947-4E3C-A15C-8486CBB48021}"/>
+    <workbookView xWindow="4320" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{9568818F-0947-4E3C-A15C-8486CBB48021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +42,6 @@
     <t>Session Date</t>
   </si>
   <si>
-    <t>Final Sch %</t>
-  </si>
-  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -59,29 +51,32 @@
     <t>02496099</t>
   </si>
   <si>
-    <t>DOB
+    <t>School Code</t>
+  </si>
+  <si>
+    <t>ENST 12</t>
+  </si>
+  <si>
+    <t>Legal Middle Name</t>
+  </si>
+  <si>
+    <t>middle name</t>
+  </si>
+  <si>
+    <t>Final Letter Grade</t>
+  </si>
+  <si>
+    <t>Number of Credits</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Birthdate
 yyyymmdd</t>
   </si>
   <si>
-    <t>School Code</t>
-  </si>
-  <si>
-    <t>ENST 12</t>
-  </si>
-  <si>
-    <t>Legal Middle Name</t>
-  </si>
-  <si>
-    <t>middle name</t>
-  </si>
-  <si>
-    <t>Final Letter Grade</t>
-  </si>
-  <si>
-    <t>Number of Credits</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>Final %</t>
   </si>
 </sst>
 </file>
@@ -462,22 +457,22 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -486,13 +481,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
@@ -501,36 +496,36 @@
         <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>123456879</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="3">
         <v>20030516</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3">
         <v>202408</v>
@@ -539,33 +534,33 @@
         <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>123456799</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="3">
         <v>20030516</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3">
         <v>202408</v>
@@ -574,33 +569,33 @@
         <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>123456788</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F4" s="3">
         <v>20030516</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3">
         <v>202408</v>
@@ -609,7 +604,7 @@
         <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" s="3">
         <v>4</v>

--- a/api/src/test/resources/summer-reporting-invalid-sessionDate.xlsx
+++ b/api/src/test/resources/summer-reporting-invalid-sessionDate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA976960-AA48-4C80-B881-A82A75355228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0F05EE-0260-9544-B8EC-0FD5150C9917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{9568818F-0947-4E3C-A15C-8486CBB48021}"/>
+    <workbookView xWindow="4320" yWindow="2200" windowWidth="21600" windowHeight="11300" xr2:uid="{9568818F-0947-4E3C-A15C-8486CBB48021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,20 +457,20 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="17.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -505,12 +505,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
-        <v>123456879</v>
+      <c r="B2">
+        <v>414422873</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -540,12 +540,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
-        <v>123456799</v>
+      <c r="B3">
+        <v>404150930</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -575,12 +575,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
-        <v>123456788</v>
+      <c r="B4">
+        <v>466974136</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>

--- a/api/src/test/resources/summer-reporting-invalid-sessionDate.xlsx
+++ b/api/src/test/resources/summer-reporting-invalid-sessionDate.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0F05EE-0260-9544-B8EC-0FD5150C9917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E906478-13AA-A24E-8A65-4E491CEFE6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="2200" windowWidth="21600" windowHeight="11300" xr2:uid="{9568818F-0947-4E3C-A15C-8486CBB48021}"/>
   </bookViews>
@@ -33,12 +33,6 @@
     <t>Legal Surname</t>
   </si>
   <si>
-    <t>Legal Given First Name</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
     <t>Session Date</t>
   </si>
   <si>
@@ -66,17 +60,22 @@
     <t>Final Letter Grade</t>
   </si>
   <si>
-    <t>Number of Credits</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Birthdate
-yyyymmdd</t>
-  </si>
-  <si>
-    <t>Final %</t>
+    <t>Legal Given Name</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Ministry Course Code and Level</t>
+  </si>
+  <si>
+    <t>Final Percent</t>
+  </si>
+  <si>
+    <t>Credits</t>
   </si>
 </sst>
 </file>
@@ -457,7 +456,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -472,7 +471,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -481,51 +480,51 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>414422873</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3">
         <v>20030516</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3">
         <v>202408</v>
@@ -534,7 +533,7 @@
         <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3">
         <v>4</v>
@@ -542,25 +541,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>404150930</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
         <v>20030516</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3">
         <v>202408</v>
@@ -569,7 +568,7 @@
         <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3">
         <v>4</v>
@@ -577,25 +576,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>466974136</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3">
         <v>20030516</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3">
         <v>202408</v>
@@ -604,7 +603,7 @@
         <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="3">
         <v>4</v>

--- a/api/src/test/resources/summer-reporting-invalid-sessionDate.xlsx
+++ b/api/src/test/resources/summer-reporting-invalid-sessionDate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E906478-13AA-A24E-8A65-4E491CEFE6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC98E06-ADF9-4EC1-A3B7-1C69664D592A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2200" windowWidth="21600" windowHeight="11300" xr2:uid="{9568818F-0947-4E3C-A15C-8486CBB48021}"/>
+    <workbookView xWindow="7350" yWindow="-10080" windowWidth="17250" windowHeight="10485" xr2:uid="{9568818F-0947-4E3C-A15C-8486CBB48021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>PEN</t>
   </si>
@@ -48,9 +48,6 @@
     <t>School Code</t>
   </si>
   <si>
-    <t>ENST 12</t>
-  </si>
-  <si>
     <t>Legal Middle Name</t>
   </si>
   <si>
@@ -69,13 +66,19 @@
     <t>Birthdate</t>
   </si>
   <si>
-    <t>Ministry Course Code and Level</t>
-  </si>
-  <si>
     <t>Final Percent</t>
   </si>
   <si>
     <t>Credits</t>
+  </si>
+  <si>
+    <t>Ministry Course Code</t>
+  </si>
+  <si>
+    <t>ENST</t>
+  </si>
+  <si>
+    <t>Ministry Course Level</t>
   </si>
 </sst>
 </file>
@@ -453,23 +456,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187FDB52-F378-4ED2-BE59-01F37DC80983}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
+    <col min="3" max="5" width="17.44140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -480,31 +483,34 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -515,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -524,22 +530,25 @@
         <v>20030516</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3">
         <v>202408</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>72</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -550,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -559,22 +568,25 @@
         <v>20030516</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3">
         <v>202408</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>72</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -585,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -594,18 +606,21 @@
         <v>20030516</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3">
         <v>202408</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>72</v>
       </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3">
         <v>4</v>
       </c>
     </row>
